--- a/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik juli 2024.xlsx
+++ b/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik juli 2024.xlsx
@@ -14,6 +14,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FirstPass" sheetId="2" r:id="rId6"/>
+    <sheet name="SecondPass" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
@@ -33,150 +35,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>1056930 - FRISKSNIT.dk</t>
+  </si>
+  <si>
+    <t>Rapporter » Kunder »</t>
+  </si>
+  <si>
+    <t>Omsætningsstatistik for kunder - perioden 01.07.24 - 31.07.24 - Frederikssund Hospital (FSH), Køkken</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Kunde / Vare</t>
+  </si>
+  <si>
+    <t>Enhed</t>
+  </si>
+  <si>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Omsætning</t>
+  </si>
+  <si>
+    <t>Løg - Rødløg - Skalotteløg</t>
+  </si>
+  <si>
+    <t>4231-1</t>
+  </si>
+  <si>
+    <t>Rødløg - Tern 5x5mm (1kg)</t>
+  </si>
+  <si>
+    <t>Porre - Forårsløg</t>
+  </si>
+  <si>
+    <t>4441-1</t>
+  </si>
+  <si>
+    <t>Porre - Skiver 2mm (1kg)</t>
+  </si>
+  <si>
+    <t>Frugtsnit</t>
+  </si>
+  <si>
+    <t>7505-32</t>
+  </si>
+  <si>
+    <t>Frugtsalat m/druer , håndskåret i lage (3,2kg)</t>
+  </si>
+  <si>
+    <t>7508-1</t>
+  </si>
+  <si>
+    <t>Frugtblanding (U/druer), 15x15mm SMÅ TERN håndskåret (1kg)</t>
+  </si>
+  <si>
+    <t>Kartofler</t>
+  </si>
+  <si>
+    <t>8541-3</t>
+  </si>
+  <si>
+    <t>Kartofler - Skrællet Skiver 4mm (3kg vakuum)</t>
+  </si>
+  <si>
+    <t>8551-3</t>
+  </si>
+  <si>
+    <t>Kartoffelbåde m/skræl (3kg vakuum)</t>
+  </si>
+  <si>
+    <t>Region H</t>
+  </si>
+  <si>
+    <t>Frederikssund Hospital (FSH), Køkken i alt:</t>
+  </si>
+  <si>
+    <t>Øko - Forkogte Kartofler</t>
+  </si>
+  <si>
+    <t>Ø8607-3</t>
+  </si>
+  <si>
+    <t>Kartofler - MOS, kogte, uden tilsat salt (3kg) - Økologisk</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Øko%</t>
+  </si>
   <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t>1056930 - FRISKSNIT.dk</t>
-  </si>
-  <si>
     <t>6% filler,31% containsProductNr,62% containsAmount,</t>
   </si>
   <si>
-    <t>Rapporter » Kunder »</t>
-  </si>
-  <si>
     <t>9% filler,90% NrHeader,</t>
   </si>
   <si>
-    <t>Omsætningsstatistik for kunder - perioden 01.07.24 - 31.07.24 - Frederikssund Hospital (FSH), Køkken</t>
-  </si>
-  <si>
     <t>9% filler,90% productNameHeader,</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>9% filler,90% QuantityHeader,</t>
   </si>
   <si>
-    <t>Gruppe</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Kunde / Vare</t>
-  </si>
-  <si>
-    <t>Enhed</t>
-  </si>
-  <si>
-    <t>Antal</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>Omsætning</t>
-  </si>
-  <si>
     <t>4% filler,47% SingleMassHeader,47% TotalMassHeader,</t>
   </si>
   <si>
-    <t>Løg - Rødløg - Skalotteløg</t>
-  </si>
-  <si>
-    <t>4231-1</t>
-  </si>
-  <si>
-    <t>Rødløg - Tern 5x5mm (1kg)</t>
-  </si>
-  <si>
     <t>9% filler,90% containsProduct,</t>
   </si>
   <si>
-    <t>Porre - Forårsløg</t>
-  </si>
-  <si>
-    <t>4441-1</t>
-  </si>
-  <si>
-    <t>Porre - Skiver 2mm (1kg)</t>
-  </si>
-  <si>
     <t>4% filler,47% containsProductNr,47% containsAmount,</t>
   </si>
   <si>
-    <t>Frugtsnit</t>
-  </si>
-  <si>
-    <t>7505-32</t>
-  </si>
-  <si>
-    <t>Frugtsalat m/druer , håndskåret i lage (3,2kg)</t>
-  </si>
-  <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>7508-1</t>
-  </si>
-  <si>
-    <t>Frugtblanding (U/druer), 15x15mm SMÅ TERN håndskåret (1kg)</t>
-  </si>
-  <si>
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>Kartofler</t>
-  </si>
-  <si>
-    <t>8541-3</t>
-  </si>
-  <si>
-    <t>Kartofler - Skrællet Skiver 4mm (3kg vakuum)</t>
-  </si>
-  <si>
     <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
   </si>
   <si>
-    <t>8551-3</t>
-  </si>
-  <si>
-    <t>Kartoffelbåde m/skræl (3kg vakuum)</t>
-  </si>
-  <si>
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
-    <t>Region H</t>
-  </si>
-  <si>
-    <t>Frederikssund Hospital (FSH), Køkken i alt:</t>
-  </si>
-  <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>Øko - Forkogte Kartofler</t>
-  </si>
-  <si>
-    <t>Ø8607-3</t>
-  </si>
-  <si>
-    <t>Kartofler - MOS, kogte, uden tilsat salt (3kg) - Økologisk</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Øko%</t>
+    <t xml:space="preserve">VARENR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -205,7 +219,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +291,26 @@
         <fgColor rgb="FF747D9B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -291,13 +325,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -312,6 +349,7 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1"/>
@@ -366,6 +404,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="15" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,6 +759,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="92.28515625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1" style="5"/>
+    <col min="4" max="4" bestFit="1" width="6.5703125" customWidth="1" style="5"/>
+    <col min="5" max="5" bestFit="1" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <f>+D7*E7</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>128.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <f ref="F8:F12" t="shared" si="0">+D8*E8</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>246.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>875.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3721.24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1159.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
+        <f>SUM(F7:F12)</f>
+        <v>165.8</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM(G7:G12)</f>
+        <v>6332.54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <f>+D16*E16</f>
+        <v>45</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1181.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4">
+        <f>SUM(F16)</f>
+        <v>45</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM(G16)</f>
+        <v>1181.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4">
+        <f>+F13+F17</f>
+        <v>210.8</v>
+      </c>
+      <c r="G19" s="4">
+        <f>+G13+G17</f>
+        <v>7513.79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11">
+        <f>+F17/F19</f>
+        <v>0.21347248576850095</v>
+      </c>
+      <c r="G20" s="11">
+        <f>+G17/G19</f>
+        <v>0.15721094148226128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8A215-AC5E-428B-9413-D4A9A1BF7134}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -711,276 +1145,276 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="92.28515625" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1" style="4"/>
-    <col min="4" max="4" bestFit="1" width="6.5703125" customWidth="1" style="4"/>
+    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1" style="5"/>
+    <col min="4" max="4" bestFit="1" width="6.5703125" customWidth="1" style="5"/>
     <col min="5" max="5" bestFit="1" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="7.140625" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="13" t="s">
+      <c r="B3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="19" t="s">
-        <v>8</v>
+      <c r="B5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="H6" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="C7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="D7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="30">
         <v>5</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="30">
         <f>+D7*E7</f>
         <v>5</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="31">
         <v>128.35</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>20</v>
+      <c r="H7" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="A8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="28">
         <v>1</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="30">
         <v>5</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="30">
         <f ref="F8:F12" t="shared" si="0">+D8*E8</f>
         <v>5</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="31">
         <v>246.95</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>24</v>
+      <c r="H8" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="33">
+      <c r="A9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="35">
         <v>3.2</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="30">
         <v>4</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="31">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="31">
         <v>875.2</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>28</v>
+      <c r="H9" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="A10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="30">
         <v>62</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="30">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="31">
         <v>3721.24</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>31</v>
+      <c r="H10" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="A11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="28">
         <v>3</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="30">
         <v>4</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="31">
         <v>201.6</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>35</v>
+      <c r="H11" s="32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="A12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="28">
         <v>3</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="30">
         <v>23</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="30">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="31">
         <v>1159.2</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>38</v>
+      <c r="H12" s="34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="34">
+        <v>27</v>
+      </c>
+      <c r="B13" s="36">
         <v>3110</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="35">
+      <c r="F13" s="37">
         <f>SUM(F7:F12)</f>
         <v>165.8</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="37">
         <f>SUM(G7:G12)</f>
         <v>6332.54</v>
       </c>
-      <c r="H13" s="37" t="s">
-        <v>41</v>
+      <c r="H13" s="39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -990,122 +1424,498 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="28">
+        <v>3</v>
+      </c>
+      <c r="E16" s="30">
         <v>15</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="26">
-        <v>3</v>
-      </c>
-      <c r="E16" s="28">
-        <v>15</v>
-      </c>
-      <c r="F16" s="28">
+      <c r="F16" s="30">
         <f>+D16*E16</f>
         <v>45</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="31">
         <v>1181.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="34">
+        <v>27</v>
+      </c>
+      <c r="B17" s="36">
         <v>3110</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="38">
+      <c r="F17" s="40">
         <f>SUM(F16)</f>
         <v>45</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="37">
         <f>SUM(G16)</f>
         <v>1181.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="35">
+      <c r="F19" s="37">
         <f>+F13+F17</f>
         <v>210.8</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="37">
         <f>+G13+G17</f>
         <v>7513.79</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="39">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="41">
         <f>+F17/F19</f>
         <v>0.21347248576850095</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="41">
+        <f>+G17/G19</f>
+        <v>0.15721094148226128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF4733F-1A21-4DC4-835F-E355402ED303}">
+  <dimension ref="A2:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="92.28515625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1" style="5"/>
+    <col min="4" max="4" bestFit="1" width="6.5703125" customWidth="1" style="5"/>
+    <col min="5" max="5" bestFit="1" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48">
+        <v>5</v>
+      </c>
+      <c r="F7" s="49">
+        <f>+D7*E7</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>128.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="48">
+        <v>5</v>
+      </c>
+      <c r="F8" s="49">
+        <f ref="F8:F12" t="shared" si="0">+D8*E8</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>246.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="48">
+        <v>4</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>875.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="48">
+        <v>62</v>
+      </c>
+      <c r="F10" s="49">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3721.24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="48">
+        <v>4</v>
+      </c>
+      <c r="F11" s="49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="48">
+        <v>23</v>
+      </c>
+      <c r="F12" s="49">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1159.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
+        <f>SUM(F7:F12)</f>
+        <v>165.8</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM(G7:G12)</f>
+        <v>6332.54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="48">
+        <v>15</v>
+      </c>
+      <c r="F16" s="49">
+        <f>+D16*E16</f>
+        <v>45</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1181.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4">
+        <f>SUM(F16)</f>
+        <v>45</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM(G16)</f>
+        <v>1181.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4">
+        <f>+F13+F17</f>
+        <v>210.8</v>
+      </c>
+      <c r="G19" s="4">
+        <f>+G13+G17</f>
+        <v>7513.79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11">
+        <f>+F17/F19</f>
+        <v>0.21347248576850095</v>
+      </c>
+      <c r="G20" s="11">
         <f>+G17/G19</f>
         <v>0.15721094148226128</v>
       </c>

--- a/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik juli 2024.xlsx
+++ b/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik juli 2024.xlsx
@@ -172,7 +172,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -278,7 +278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -325,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,19 +409,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1134,7 +1144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8A215-AC5E-428B-9413-D4A9A1BF7134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA8C9E1-C24E-4520-BD80-88EED21423F1}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1551,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF4733F-1A21-4DC4-835F-E355402ED303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B6543A-68CE-4F13-A9CE-65E6BC5C04B7}">
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1612,16 +1622,16 @@
       <c r="B6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="46" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="49" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1635,16 +1645,16 @@
       <c r="B7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="50">
         <v>5</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="52">
         <f>+D7*E7</f>
         <v>5</v>
       </c>
@@ -1659,16 +1669,16 @@
       <c r="B8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="50">
         <v>5</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="52">
         <f ref="F8:F12" t="shared" si="0">+D8*E8</f>
         <v>5</v>
       </c>
@@ -1683,16 +1693,16 @@
       <c r="B9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>3.2</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="50">
         <v>4</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="52">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
@@ -1707,16 +1717,16 @@
       <c r="B10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="47" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="50">
         <v>62</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="52">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -1731,16 +1741,16 @@
       <c r="B11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="50">
         <v>4</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="52">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1755,16 +1765,16 @@
       <c r="B12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="50">
         <v>23</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="52">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -1776,15 +1786,15 @@
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="45">
         <v>3110</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4">
+      <c r="E13" s="51"/>
+      <c r="F13" s="53">
         <f>SUM(F7:F12)</f>
         <v>165.8</v>
       </c>
@@ -1805,16 +1815,16 @@
       <c r="B15" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="49" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1828,16 +1838,16 @@
       <c r="B16" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="50">
         <v>15</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="52">
         <f>+D16*E16</f>
         <v>45</v>
       </c>
@@ -1849,15 +1859,15 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="45">
         <v>3110</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4">
+      <c r="E17" s="51"/>
+      <c r="F17" s="53">
         <f>SUM(F16)</f>
         <v>45</v>
       </c>
